--- a/medicine/Enfance/Pierre_Grimbert/Pierre_Grimbert.xlsx
+++ b/medicine/Enfance/Pierre_Grimbert/Pierre_Grimbert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Grimbert, né le 23 septembre 1970 à Lille, est un éditeur et écrivain français, notamment de fantasy.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Grimbert travaille quelque temps comme bibliothécaire, puis part à Bordeaux afin d’étudier les métiers de l’édition et de la librairie. En 1995, il écrit Le Secret de Ji. Six héritiers, le premier volume, est couronné du prix Julia-Verlanger 1997 et du prix Ozone 1997 du meilleur roman de fantasy francophone.
 Son deuxième cycle est La Malerune, dont il n’a écrit que le premier tome. Les deux livres suivants de la série sont écrits par Michel Robert.
@@ -546,10 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans de fantasy
-Série Ji
-Le Secret de Ji[1] (1997 aux Éditions Mnémos ; 2003 aux Éditions J’ai Lu : regroupé en 2 volumes, Le Secret de Ji, tomes 1 et 2)
-Six héritiers[2] (1997)
+          <t>Série Ji</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Secret de Ji (1997 aux Éditions Mnémos ; 2003 aux Éditions J’ai Lu : regroupé en 2 volumes, Le Secret de Ji, tomes 1 et 2)
+Six héritiers (1997)
 Le Serment orphelin (1997)
 L’Ombre des Anciens (1997)
 Le Doyen éternel (1997)
@@ -563,9 +581,43 @@
 La Volonté du Démon (18 avril 2008)
 Le Deuil écarlate (17 mars 2009)
 Le Souffle des aïeux (27 août 2010)
-Les Vénérables (24 mai 2012)
-Autres séries
-La Malerune (Éditions Mnémos)
+Les Vénérables (24 mai 2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pierre_Grimbert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Grimbert</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres séries</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Malerune (Éditions Mnémos)
 Les Armes des Garamont (novembre 1998)
 Les tomes 2 et 3 ont été écrits par Michel Robert, sous la supervision de Pierre Grimbert
 Le Dire des Sylfes (2003)
@@ -583,13 +635,81 @@
 21 Lames
 Gabrielle (2021)
 Matthew (A venir)
-Le sang des Parangons, MNEMOS, 2022.
-Nouvelles
-Le Guerrier La Mort (1998 - in Fantasy - Fleuve noir)
+Le sang des Parangons, MNEMOS, 2022.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pierre_Grimbert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Grimbert</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Guerrier La Mort (1998 - in Fantasy - Fleuve noir)
 Elfine (1999 - in Légendaire  no 6 - Nestiveqnen)
-La Relique (2006 - J'ai lu)
-Littérature jeunesse
-Les Aventuriers de l’Irréel (Éditions Degliame)
+La Relique (2006 - J'ai lu)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pierre_Grimbert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Grimbert</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Aventuriers de l’Irréel (Éditions Degliame)
 Prisonniers d’Harmonia (2001 - n°4)
 La Formule rouge (2001 - n°7)
 La Voie du voleur (2002 - n°24)
